--- a/biology/Zoologie/Bombyx_du_peuplier/Bombyx_du_peuplier.xlsx
+++ b/biology/Zoologie/Bombyx_du_peuplier/Bombyx_du_peuplier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poecilocampa populi
 Le Bombyx du peuplier (Poecilocampa populi) est une espèce d'insectes lépidoptères (papillons) appartenant à la famille des Lasiocampidae et au genre Poecilocampa.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Envergure du mâle : de 12 à 18 mm.
 			Poecilocampa populi ♂
@@ -547,7 +561,9 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
 de l’Europe à la région du fleuve Amour.
@@ -580,7 +596,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Période de vol : de septembre à janvier.
 Plantes-hôtes : Populus, Salix, Betula, Quercus, arbres fruitiers.</t>
@@ -611,21 +629,92 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Phalaena populi[1].
-Synonymie
-Phalaena populi Linné, 1758
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce a été décrite  par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Phalaena populi.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bombyx_du_peuplier</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombyx_du_peuplier</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Phalaena populi Linné, 1758
 Bombyx desolata Müller, 1764
 Poecilocampa populi var. lydiae Krulikowsky, 1909
 Poecilocampa populi bajuvarica Stichel, 1918
 Poecilocampa populi infuscata Niesiokowski, 1932
-Poecilocampa populi grisea Daniel, 1963
-Taxinomie
-Liste des sous-espèces et formes
+Poecilocampa populi grisea Daniel, 1963</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Bombyx_du_peuplier</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bombyx_du_peuplier</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Liste des sous-espèces et formes
 Phalaena populi populi  (Linné, 1758)
 Phalaena populi coluchei Varenne &amp; Billi, 2002
-Phalaena populi pontica  de Freina, 1999[2]
+Phalaena populi pontica  de Freina, 1999
 			Poecilocampa populi f. semova ventral MHNT
 			Poecilocampa populi f. semova  dorsal MHNT
 </t>
